--- a/src/test/resources/Userdata.xlsx
+++ b/src/test/resources/Userdata.xlsx
@@ -25,7 +25,7 @@
     <t>userEmail</t>
   </si>
   <si>
-    <t>Khadijah</t>
+    <t>Taimoor</t>
   </si>
   <si>
     <t>Clements</t>
